--- a/src/analysis_examples/circadb/results_lomb/cosinor_10465638_naa40_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10465638_naa40_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1847416531070225, 0.29624916857441874]</t>
+          <t>[0.18449098373695516, 0.2964998379444861]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.253118364630268e-08</v>
+        <v>1.351355449763503e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.253118364630268e-08</v>
+        <v>1.351355449763503e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5157369321208467</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, -0.27673689040630745]</t>
+          <t>[-0.767315923399309, -0.2641579408423844]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002025334834605541</v>
+        <v>0.0003462572359094196</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002025334834605541</v>
+        <v>0.0003462572359094196</v>
       </c>
       <c r="S2" t="n">
         <v>0.4511363538443014</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42152072424314524, 0.48075198344545755]</t>
+          <t>[0.42153168926938106, 0.48074101841922173]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.116896896896971</v>
       </c>
       <c r="X2" t="n">
-        <v>1.135895895895934</v>
+        <v>1.084264264264301</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.097897897898009</v>
+        <v>3.149529529529642</v>
       </c>
     </row>
   </sheetData>
